--- a/Config/RewardConfig.xlsx
+++ b/Config/RewardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591DDDD-F7C3-413F-94DB-78DD173B3F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AA01C6-3DBC-40FE-AE51-6DD3F1EC0229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="6500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="5000" windowWidth="27080" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1;2,1;3,1;4,1;5,1;6,1</t>
+    <t>1,1;2,1;3,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
